--- a/正式动工/彪哥这边的能力开放平台/正式开工/曹兵发的/2019年存储共享组周工作总结计划.xlsx
+++ b/正式动工/彪哥这边的能力开放平台/正式开工/曹兵发的/2019年存储共享组周工作总结计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>2017年 月 第 周项目工作汇报（汇报周期:  月  日至  月  日）</t>
   </si>
@@ -106,7 +106,7 @@
     <t>逸留任务</t>
   </si>
   <si>
-    <t>2018年 9月 第1周项目工作汇报（汇报周期: 9月 03日至 9月 07日）</t>
+    <t>2019年 1月 第4周项目工作汇报（汇报周期: 1月 28日至 1月 31日）</t>
   </si>
   <si>
     <t>计划完成（百分比）</t>
@@ -128,10 +128,22 @@
   </si>
   <si>
     <t>计划内任务</t>
+  </si>
+  <si>
+    <t>系统日志优化</t>
   </si>
   <si>
     <t>计划外任务
 （新增任务）</t>
+  </si>
+  <si>
+    <t>将采集服务的接口转移到能力开放平台</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>检查信息注册的契约实体发生改变，能力开放平台这边的dto需要重新调整</t>
   </si>
   <si>
     <t>下周计划</t>
@@ -157,8 +169,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -204,6 +216,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -225,6 +245,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -232,23 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,8 +280,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,44 +330,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -326,7 +345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,13 +357,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -385,43 +397,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,31 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,103 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,50 +855,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,7 +878,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,6 +912,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -937,149 +949,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,10 +1140,13 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,7 +1164,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1595,28 +1616,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" ht="18.75" spans="1:8">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" ht="24" spans="1:8">
       <c r="A3" s="8"/>
@@ -1638,173 +1659,173 @@
       <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="31" customFormat="1" spans="1:8">
+    <row r="4" s="34" customFormat="1" spans="1:8">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" s="31" customFormat="1" spans="1:8">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" s="34" customFormat="1" spans="1:8">
       <c r="A5" s="17"/>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" s="31" customFormat="1" spans="1:8">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" s="34" customFormat="1" spans="1:8">
       <c r="A6" s="17"/>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" s="31" customFormat="1" spans="1:8">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" s="34" customFormat="1" spans="1:8">
       <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" s="31" customFormat="1" spans="1:8">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" s="34" customFormat="1" spans="1:8">
       <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" s="31" customFormat="1" spans="1:8">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" s="34" customFormat="1" spans="1:8">
       <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" s="31" customFormat="1" spans="1:8">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" s="34" customFormat="1" spans="1:8">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" s="31" customFormat="1" spans="1:8">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" s="34" customFormat="1" spans="1:8">
       <c r="A11" s="17"/>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" s="31" customFormat="1" spans="1:8">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" s="34" customFormat="1" spans="1:8">
       <c r="A12" s="17"/>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" s="31" customFormat="1" spans="1:8">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" s="34" customFormat="1" spans="1:8">
       <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" s="31" customFormat="1" spans="1:8">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" s="34" customFormat="1" spans="1:8">
       <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" s="31" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A15" s="25"/>
-      <c r="B15" s="21" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" s="34" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A15" s="28"/>
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" ht="45.75" customHeight="1" spans="1:8">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" ht="18.75" spans="1:8">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" ht="24" spans="1:8">
       <c r="A18" s="8"/>
@@ -1826,103 +1847,103 @@
       <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" s="31" customFormat="1" ht="20.25" customHeight="1" spans="1:8">
+    <row r="19" s="34" customFormat="1" ht="20.25" customHeight="1" spans="1:8">
       <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="47">
         <v>1</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" s="31" customFormat="1" ht="28.5" customHeight="1" spans="1:8">
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" s="34" customFormat="1" ht="28.5" customHeight="1" spans="1:8">
       <c r="A20" s="17"/>
-      <c r="B20" s="18">
+      <c r="B20" s="19">
         <v>2</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="47">
         <v>1</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" s="31" customFormat="1" ht="25.5" customHeight="1" spans="1:8">
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" s="34" customFormat="1" ht="25.5" customHeight="1" spans="1:8">
       <c r="A21" s="17"/>
-      <c r="B21" s="18">
+      <c r="B21" s="19">
         <v>3</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="47">
         <v>1</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" s="31" customFormat="1" spans="1:8">
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" s="34" customFormat="1" spans="1:8">
       <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" s="31" customFormat="1" spans="1:8">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" s="34" customFormat="1" spans="1:8">
       <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" s="31" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" s="34" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" ht="14.25"/>
     <row r="26" ht="29.25" customHeight="1" spans="1:8">
@@ -1935,19 +1956,19 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="26"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" ht="18.75" spans="1:8">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" ht="28.5" customHeight="1" spans="1:8">
       <c r="A28" s="8"/>
@@ -1969,7 +1990,7 @@
       <c r="G28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1977,203 +1998,203 @@
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="47">
         <v>1</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:8">
       <c r="A30" s="17"/>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="47">
         <v>0</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:8">
       <c r="A31" s="17"/>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>3</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="47">
         <v>0.5</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="29"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="29"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="17"/>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="30"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>1</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="25">
         <v>1</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="29"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="17"/>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <v>2</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="25">
         <v>1</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="29"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="17"/>
-      <c r="B37" s="18">
+      <c r="B37" s="19">
         <v>3</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="29"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="29"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="29"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="25"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="30"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:8">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" ht="18.75" spans="1:8">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" ht="24" spans="1:8">
       <c r="A43" s="8"/>
@@ -2195,7 +2216,7 @@
       <c r="G43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2203,79 +2224,79 @@
       <c r="A44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="19">
         <v>1</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="25">
         <v>1</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="29"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="17"/>
-      <c r="B45" s="18">
+      <c r="B45" s="19">
         <v>2</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="29"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="17"/>
-      <c r="B46" s="18">
+      <c r="B46" s="19">
         <v>3</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="29"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="29"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="29"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="32"/>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2325,7 +2346,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2356,7 +2377,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="26"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" ht="24" spans="1:12">
       <c r="A2" s="8"/>
@@ -2390,7 +2411,7 @@
       <c r="K2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2401,16 +2422,24 @@
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
       <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="28"/>
+      <c r="H3" s="16">
+        <v>6</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:12">
       <c r="A4" s="17"/>
@@ -2422,11 +2451,11 @@
       <c r="E4" s="15"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="28"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:12">
       <c r="A5" s="17"/>
@@ -2438,263 +2467,274 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="28"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:12">
       <c r="A6" s="17"/>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="15"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="29"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:12">
       <c r="A7" s="17"/>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="29"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" ht="27.75" customHeight="1" spans="1:12">
       <c r="A8" s="17"/>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="29"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="30"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:12">
       <c r="A10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="18">
+        <v>38</v>
+      </c>
+      <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="29"/>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="24">
+        <v>100</v>
+      </c>
+      <c r="F10" s="24">
+        <v>90</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26">
+        <v>4</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:12">
       <c r="A11" s="17"/>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="29"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:12">
       <c r="A12" s="17"/>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:12">
       <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="29"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:12">
       <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="29"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="25"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:12">
       <c r="A16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="18">
+        <v>42</v>
+      </c>
+      <c r="B16" s="19">
         <v>1</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:12">
       <c r="A17" s="17"/>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:12">
       <c r="A18" s="17"/>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>3</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="29"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:12">
       <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="29"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:12">
       <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="29"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="25"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="30"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2741,22 +2781,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
